--- a/Data/EC/NIT-9013734871.xlsx
+++ b/Data/EC/NIT-9013734871.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6154F7FE-1561-453D-9B56-7FAFB9A19E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3343C434-8BD9-4BB6-9E04-4D402B978A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01F70F75-E0E7-4019-A030-88E134C28E25}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{71662DCD-2113-44B6-8855-965DC1F5419B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,70 +71,70 @@
     <t>JORGE ENRIQUE DIAZ CASTRO</t>
   </si>
   <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
     <t>2109</t>
   </si>
   <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
     <t>1102865394</t>
   </si>
   <si>
     <t>AIDER ENRIQUE TORRES OVIEDO</t>
-  </si>
-  <si>
-    <t>2304</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -548,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47AAE4FF-DFBF-14F1-6CCF-444B716444E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B019595-E534-E6CE-F970-CCA4A172862F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BE9631-737C-448E-BAF7-4AAE359C1435}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A339CF21-4AB5-448A-BC1A-75B062F109DA}">
   <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1077,7 +1077,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>100000</v>
+        <v>36667</v>
       </c>
       <c r="G16" s="18">
         <v>2500000</v>
@@ -1505,19 +1505,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F35" s="18">
-        <v>9280</v>
+        <v>100000</v>
       </c>
       <c r="G35" s="18">
-        <v>1300000</v>
+        <v>2500000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1528,19 +1528,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F36" s="24">
-        <v>36667</v>
+        <v>9280</v>
       </c>
       <c r="G36" s="24">
-        <v>2500000</v>
+        <v>1300000</v>
       </c>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>

--- a/Data/EC/NIT-9013734871.xlsx
+++ b/Data/EC/NIT-9013734871.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3343C434-8BD9-4BB6-9E04-4D402B978A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEF21C6A-1AC2-4644-BF4A-420980F1F77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{71662DCD-2113-44B6-8855-965DC1F5419B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00EEA655-67DB-47D5-A620-8A412AB66097}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <t>NIT</t>
   </si>
   <si>
-    <t>DORAL CARTAGENA S.A.S.</t>
+    <t>DC DORAL CARTAGENA S.A.S.</t>
   </si>
   <si>
     <t>CC</t>
@@ -71,64 +71,64 @@
     <t>JORGE ENRIQUE DIAZ CASTRO</t>
   </si>
   <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
     <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
   </si>
   <si>
     <t>1102865394</t>
@@ -233,7 +233,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -246,9 +248,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -448,23 +448,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,10 +492,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B019595-E534-E6CE-F970-CCA4A172862F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1BFDF8-6B14-53B5-E303-39376A54CCC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A339CF21-4AB5-448A-BC1A-75B062F109DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B826C67-AC64-493A-93AD-9E89F6BFE08E}">
   <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1077,7 +1077,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36667</v>
+        <v>100000</v>
       </c>
       <c r="G16" s="18">
         <v>2500000</v>
@@ -1514,7 +1514,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>100000</v>
+        <v>36667</v>
       </c>
       <c r="G35" s="18">
         <v>2500000</v>
@@ -1534,13 +1534,13 @@
         <v>32</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F36" s="24">
         <v>9280</v>
       </c>
       <c r="G36" s="24">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
